--- a/doc/게임 기획서.xlsx
+++ b/doc/게임 기획서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>아이폰 가로 화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -211,10 +211,6 @@
   </si>
   <si>
     <t>* 미로 생성 알고리즘 R&amp;D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 프로젝트 디렉토리 구조 셋팅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -245,6 +241,26 @@
   </si>
   <si>
     <t>* 플레이어 로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 프로젝트 구조 셋팅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 패킷 연동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 게임 스크립트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 게임 DB 연동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* JSON연동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -409,18 +425,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -430,11 +434,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1453,1480 +1469,1461 @@
       <c r="AH20" s="5"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AI21" s="16" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AI21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
+      <c r="BD21" s="12"/>
+      <c r="BE21" s="12"/>
+      <c r="BF21" s="12"/>
+      <c r="BG21" s="12"/>
+      <c r="BH21" s="12"/>
+      <c r="BI21" s="12"/>
+      <c r="BJ21" s="12"/>
+      <c r="BK21" s="12"/>
+      <c r="BL21" s="12"/>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
+      <c r="BB22" s="12"/>
+      <c r="BC22" s="12"/>
+      <c r="BD22" s="12"/>
+      <c r="BE22" s="12"/>
+      <c r="BF22" s="12"/>
+      <c r="BG22" s="12"/>
+      <c r="BH22" s="12"/>
+      <c r="BI22" s="12"/>
+      <c r="BJ22" s="12"/>
+      <c r="BK22" s="12"/>
+      <c r="BL22" s="12"/>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="12"/>
+      <c r="BD23" s="12"/>
+      <c r="BE23" s="12"/>
+      <c r="BF23" s="12"/>
+      <c r="BG23" s="12"/>
+      <c r="BH23" s="12"/>
+      <c r="BI23" s="12"/>
+      <c r="BJ23" s="12"/>
+      <c r="BK23" s="12"/>
+      <c r="BL23" s="12"/>
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+      <c r="BA24" s="12"/>
+      <c r="BB24" s="12"/>
+      <c r="BC24" s="12"/>
+      <c r="BD24" s="12"/>
+      <c r="BE24" s="12"/>
+      <c r="BF24" s="12"/>
+      <c r="BG24" s="12"/>
+      <c r="BH24" s="12"/>
+      <c r="BI24" s="12"/>
+      <c r="BJ24" s="12"/>
+      <c r="BK24" s="12"/>
+      <c r="BL24" s="12"/>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="8"/>
-      <c r="AP21" s="8"/>
-      <c r="AQ21" s="8"/>
-      <c r="AR21" s="8"/>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="8"/>
-      <c r="AU21" s="8"/>
-      <c r="AV21" s="8"/>
-      <c r="AW21" s="8"/>
-      <c r="AX21" s="8"/>
-      <c r="AY21" s="8"/>
-      <c r="AZ21" s="8"/>
-      <c r="BA21" s="8"/>
-      <c r="BB21" s="8"/>
-      <c r="BC21" s="8"/>
-      <c r="BD21" s="8"/>
-      <c r="BE21" s="8"/>
-      <c r="BF21" s="8"/>
-      <c r="BG21" s="8"/>
-      <c r="BH21" s="8"/>
-      <c r="BI21" s="8"/>
-      <c r="BJ21" s="8"/>
-      <c r="BK21" s="8"/>
-      <c r="BL21" s="8"/>
-    </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8"/>
-      <c r="AP22" s="8"/>
-      <c r="AQ22" s="8"/>
-      <c r="AR22" s="8"/>
-      <c r="AS22" s="8"/>
-      <c r="AT22" s="8"/>
-      <c r="AU22" s="8"/>
-      <c r="AV22" s="8"/>
-      <c r="AW22" s="8"/>
-      <c r="AX22" s="8"/>
-      <c r="AY22" s="8"/>
-      <c r="AZ22" s="8"/>
-      <c r="BA22" s="8"/>
-      <c r="BB22" s="8"/>
-      <c r="BC22" s="8"/>
-      <c r="BD22" s="8"/>
-      <c r="BE22" s="8"/>
-      <c r="BF22" s="8"/>
-      <c r="BG22" s="8"/>
-      <c r="BH22" s="8"/>
-      <c r="BI22" s="8"/>
-      <c r="BJ22" s="8"/>
-      <c r="BK22" s="8"/>
-      <c r="BL22" s="8"/>
-    </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="8"/>
-      <c r="AM23" s="8"/>
-      <c r="AN23" s="8"/>
-      <c r="AO23" s="8"/>
-      <c r="AP23" s="8"/>
-      <c r="AQ23" s="8"/>
-      <c r="AR23" s="8"/>
-      <c r="AS23" s="8"/>
-      <c r="AT23" s="8"/>
-      <c r="AU23" s="8"/>
-      <c r="AV23" s="8"/>
-      <c r="AW23" s="8"/>
-      <c r="AX23" s="8"/>
-      <c r="AY23" s="8"/>
-      <c r="AZ23" s="8"/>
-      <c r="BA23" s="8"/>
-      <c r="BB23" s="8"/>
-      <c r="BC23" s="8"/>
-      <c r="BD23" s="8"/>
-      <c r="BE23" s="8"/>
-      <c r="BF23" s="8"/>
-      <c r="BG23" s="8"/>
-      <c r="BH23" s="8"/>
-      <c r="BI23" s="8"/>
-      <c r="BJ23" s="8"/>
-      <c r="BK23" s="8"/>
-      <c r="BL23" s="8"/>
-    </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="8"/>
-      <c r="AO24" s="8"/>
-      <c r="AP24" s="8"/>
-      <c r="AQ24" s="8"/>
-      <c r="AR24" s="8"/>
-      <c r="AS24" s="8"/>
-      <c r="AT24" s="8"/>
-      <c r="AU24" s="8"/>
-      <c r="AV24" s="8"/>
-      <c r="AW24" s="8"/>
-      <c r="AX24" s="8"/>
-      <c r="AY24" s="8"/>
-      <c r="AZ24" s="8"/>
-      <c r="BA24" s="8"/>
-      <c r="BB24" s="8"/>
-      <c r="BC24" s="8"/>
-      <c r="BD24" s="8"/>
-      <c r="BE24" s="8"/>
-      <c r="BF24" s="8"/>
-      <c r="BG24" s="8"/>
-      <c r="BH24" s="8"/>
-      <c r="BI24" s="8"/>
-      <c r="BJ24" s="8"/>
-      <c r="BK24" s="8"/>
-      <c r="BL24" s="8"/>
-    </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
-      <c r="AM25" s="8"/>
-      <c r="AN25" s="8"/>
-      <c r="AO25" s="8"/>
-      <c r="AP25" s="8"/>
-      <c r="AQ25" s="8"/>
-      <c r="AR25" s="8"/>
-      <c r="AS25" s="8"/>
-      <c r="AT25" s="8"/>
-      <c r="AU25" s="8"/>
-      <c r="AV25" s="8"/>
-      <c r="AW25" s="8"/>
-      <c r="AX25" s="8"/>
-      <c r="AY25" s="8"/>
-      <c r="AZ25" s="8"/>
-      <c r="BA25" s="8"/>
-      <c r="BB25" s="8"/>
-      <c r="BC25" s="8"/>
-      <c r="BD25" s="8"/>
-      <c r="BE25" s="8"/>
-      <c r="BF25" s="8"/>
-      <c r="BG25" s="8"/>
-      <c r="BH25" s="8"/>
-      <c r="BI25" s="8"/>
-      <c r="BJ25" s="8"/>
-      <c r="BK25" s="8"/>
-      <c r="BL25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+      <c r="AY25" s="12"/>
+      <c r="AZ25" s="12"/>
+      <c r="BA25" s="12"/>
+      <c r="BB25" s="12"/>
+      <c r="BC25" s="12"/>
+      <c r="BD25" s="12"/>
+      <c r="BE25" s="12"/>
+      <c r="BF25" s="12"/>
+      <c r="BG25" s="12"/>
+      <c r="BH25" s="12"/>
+      <c r="BI25" s="12"/>
+      <c r="BJ25" s="12"/>
+      <c r="BK25" s="12"/>
+      <c r="BL25" s="12"/>
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="8"/>
-      <c r="AM26" s="8"/>
-      <c r="AN26" s="8"/>
-      <c r="AO26" s="8"/>
-      <c r="AP26" s="8"/>
-      <c r="AQ26" s="8"/>
-      <c r="AR26" s="8"/>
-      <c r="AS26" s="8"/>
-      <c r="AT26" s="8"/>
-      <c r="AU26" s="8"/>
-      <c r="AV26" s="8"/>
-      <c r="AW26" s="8"/>
-      <c r="AX26" s="8"/>
-      <c r="AY26" s="8"/>
-      <c r="AZ26" s="8"/>
-      <c r="BA26" s="8"/>
-      <c r="BB26" s="8"/>
-      <c r="BC26" s="8"/>
-      <c r="BD26" s="8"/>
-      <c r="BE26" s="8"/>
-      <c r="BF26" s="8"/>
-      <c r="BG26" s="8"/>
-      <c r="BH26" s="8"/>
-      <c r="BI26" s="8"/>
-      <c r="BJ26" s="8"/>
-      <c r="BK26" s="8"/>
-      <c r="BL26" s="8"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="12"/>
+      <c r="BB26" s="12"/>
+      <c r="BC26" s="12"/>
+      <c r="BD26" s="12"/>
+      <c r="BE26" s="12"/>
+      <c r="BF26" s="12"/>
+      <c r="BG26" s="12"/>
+      <c r="BH26" s="12"/>
+      <c r="BI26" s="12"/>
+      <c r="BJ26" s="12"/>
+      <c r="BK26" s="12"/>
+      <c r="BL26" s="12"/>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
-      <c r="AK27" s="8"/>
-      <c r="AL27" s="8"/>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="8"/>
-      <c r="AO27" s="8"/>
-      <c r="AP27" s="8"/>
-      <c r="AQ27" s="8"/>
-      <c r="AR27" s="8"/>
-      <c r="AS27" s="8"/>
-      <c r="AT27" s="8"/>
-      <c r="AU27" s="8"/>
-      <c r="AV27" s="8"/>
-      <c r="AW27" s="8"/>
-      <c r="AX27" s="8"/>
-      <c r="AY27" s="8"/>
-      <c r="AZ27" s="8"/>
-      <c r="BA27" s="8"/>
-      <c r="BB27" s="8"/>
-      <c r="BC27" s="8"/>
-      <c r="BD27" s="8"/>
-      <c r="BE27" s="8"/>
-      <c r="BF27" s="8"/>
-      <c r="BG27" s="8"/>
-      <c r="BH27" s="8"/>
-      <c r="BI27" s="8"/>
-      <c r="BJ27" s="8"/>
-      <c r="BK27" s="8"/>
-      <c r="BL27" s="8"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12"/>
+      <c r="AU27" s="12"/>
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="12"/>
+      <c r="AY27" s="12"/>
+      <c r="AZ27" s="12"/>
+      <c r="BA27" s="12"/>
+      <c r="BB27" s="12"/>
+      <c r="BC27" s="12"/>
+      <c r="BD27" s="12"/>
+      <c r="BE27" s="12"/>
+      <c r="BF27" s="12"/>
+      <c r="BG27" s="12"/>
+      <c r="BH27" s="12"/>
+      <c r="BI27" s="12"/>
+      <c r="BJ27" s="12"/>
+      <c r="BK27" s="12"/>
+      <c r="BL27" s="12"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="8"/>
-      <c r="AM28" s="8"/>
-      <c r="AN28" s="8"/>
-      <c r="AO28" s="8"/>
-      <c r="AP28" s="8"/>
-      <c r="AQ28" s="8"/>
-      <c r="AR28" s="8"/>
-      <c r="AS28" s="8"/>
-      <c r="AT28" s="8"/>
-      <c r="AU28" s="8"/>
-      <c r="AV28" s="8"/>
-      <c r="AW28" s="8"/>
-      <c r="AX28" s="8"/>
-      <c r="AY28" s="8"/>
-      <c r="AZ28" s="8"/>
-      <c r="BA28" s="8"/>
-      <c r="BB28" s="8"/>
-      <c r="BC28" s="8"/>
-      <c r="BD28" s="8"/>
-      <c r="BE28" s="8"/>
-      <c r="BF28" s="8"/>
-      <c r="BG28" s="8"/>
-      <c r="BH28" s="8"/>
-      <c r="BI28" s="8"/>
-      <c r="BJ28" s="8"/>
-      <c r="BK28" s="8"/>
-      <c r="BL28" s="8"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
+      <c r="BC28" s="12"/>
+      <c r="BD28" s="12"/>
+      <c r="BE28" s="12"/>
+      <c r="BF28" s="12"/>
+      <c r="BG28" s="12"/>
+      <c r="BH28" s="12"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="12"/>
+      <c r="BK28" s="12"/>
+      <c r="BL28" s="12"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="8"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="15"/>
+      <c r="A32" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="8"/>
-      <c r="AD37" s="8"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="8"/>
-      <c r="AG37" s="8"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
-      <c r="AG38" s="8"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="8"/>
-      <c r="AG39" s="8"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
-      <c r="AG40" s="8"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="8"/>
-      <c r="AG41" s="8"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="8"/>
-      <c r="AD42" s="8"/>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="8"/>
-      <c r="AG42" s="8"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="8"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="8"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="8"/>
-      <c r="AG45" s="8"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="8"/>
-      <c r="AD46" s="8"/>
-      <c r="AE46" s="8"/>
-      <c r="AF46" s="8"/>
-      <c r="AG46" s="8"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="8"/>
-      <c r="AD47" s="8"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="8"/>
-      <c r="AG47" s="8"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="8"/>
-      <c r="AD48" s="8"/>
-      <c r="AE48" s="8"/>
-      <c r="AF48" s="8"/>
-      <c r="AG48" s="8"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="8"/>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="8"/>
-      <c r="AF49" s="8"/>
-      <c r="AG49" s="8"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="8"/>
-      <c r="AD50" s="8"/>
-      <c r="AE50" s="8"/>
-      <c r="AF50" s="8"/>
-      <c r="AG50" s="8"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="8"/>
-      <c r="AD51" s="8"/>
-      <c r="AE51" s="8"/>
-      <c r="AF51" s="8"/>
-      <c r="AG51" s="8"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="8"/>
-      <c r="AD52" s="8"/>
-      <c r="AE52" s="8"/>
-      <c r="AF52" s="8"/>
-      <c r="AG52" s="8"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="8"/>
-      <c r="AD53" s="8"/>
-      <c r="AE53" s="8"/>
-      <c r="AF53" s="8"/>
-      <c r="AG53" s="8"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="8"/>
-      <c r="AD54" s="8"/>
-      <c r="AE54" s="8"/>
-      <c r="AF54" s="8"/>
-      <c r="AG54" s="8"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AI21:BL28"/>
-    <mergeCell ref="A26:AG26"/>
-    <mergeCell ref="A21:AG21"/>
-    <mergeCell ref="A22:AG22"/>
-    <mergeCell ref="A23:AG23"/>
-    <mergeCell ref="A24:AG24"/>
-    <mergeCell ref="A25:AG25"/>
-    <mergeCell ref="A27:AG27"/>
-    <mergeCell ref="A28:AG28"/>
-    <mergeCell ref="A29:AG29"/>
-    <mergeCell ref="A31:AG31"/>
-    <mergeCell ref="A30:AG30"/>
-    <mergeCell ref="A44:AG44"/>
-    <mergeCell ref="A33:AG33"/>
-    <mergeCell ref="A34:AG34"/>
-    <mergeCell ref="A35:AG35"/>
-    <mergeCell ref="A36:AG36"/>
-    <mergeCell ref="A37:AG37"/>
-    <mergeCell ref="A38:AG38"/>
     <mergeCell ref="A51:AG51"/>
     <mergeCell ref="A52:AG52"/>
     <mergeCell ref="A53:AG53"/>
@@ -2943,6 +2940,25 @@
     <mergeCell ref="A41:AG41"/>
     <mergeCell ref="A42:AG42"/>
     <mergeCell ref="A43:AG43"/>
+    <mergeCell ref="A29:AG29"/>
+    <mergeCell ref="A31:AG31"/>
+    <mergeCell ref="A30:AG30"/>
+    <mergeCell ref="A44:AG44"/>
+    <mergeCell ref="A33:AG33"/>
+    <mergeCell ref="A34:AG34"/>
+    <mergeCell ref="A35:AG35"/>
+    <mergeCell ref="A36:AG36"/>
+    <mergeCell ref="A37:AG37"/>
+    <mergeCell ref="A38:AG38"/>
+    <mergeCell ref="AI21:BL28"/>
+    <mergeCell ref="A26:AG26"/>
+    <mergeCell ref="A21:AG21"/>
+    <mergeCell ref="A22:AG22"/>
+    <mergeCell ref="A23:AG23"/>
+    <mergeCell ref="A24:AG24"/>
+    <mergeCell ref="A25:AG25"/>
+    <mergeCell ref="A27:AG27"/>
+    <mergeCell ref="A28:AG28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2955,35 +2971,36 @@
   <dimension ref="A1:AV7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="36" width="11.375" bestFit="1" customWidth="1"/>
     <col min="37" max="48" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -2992,10 +3009,10 @@
       <c r="H1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="7" t="s">
@@ -3004,10 +3021,10 @@
       <c r="L1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="O1" s="7" t="s">
@@ -3016,10 +3033,10 @@
       <c r="P1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="S1" s="7" t="s">
@@ -3028,10 +3045,10 @@
       <c r="T1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="8" t="s">
         <v>32</v>
       </c>
       <c r="W1" s="7" t="s">
@@ -3040,10 +3057,10 @@
       <c r="X1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="8" t="s">
         <v>36</v>
       </c>
       <c r="AA1" s="7" t="s">
@@ -3052,10 +3069,10 @@
       <c r="AB1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="8" t="s">
         <v>40</v>
       </c>
       <c r="AE1" s="7" t="s">
@@ -3064,10 +3081,10 @@
       <c r="AF1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="8" t="s">
         <v>44</v>
       </c>
       <c r="AI1" s="7" t="s">
@@ -3076,10 +3093,10 @@
       <c r="AJ1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AK1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AL1" s="8" t="s">
         <v>48</v>
       </c>
       <c r="AM1" s="7" t="s">
@@ -3088,10 +3105,10 @@
       <c r="AN1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AO1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AP1" s="8" t="s">
         <v>52</v>
       </c>
       <c r="AQ1" s="7" t="s">
@@ -3100,10 +3117,10 @@
       <c r="AR1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AS1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AT1" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AU1" s="7" t="s">
@@ -3114,26 +3131,38 @@
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>61</v>
+      <c r="B5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>59</v>
+      <c r="A6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>65</v>
+      <c r="B7" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
